--- a/split_data/standard_in/taipei/mobile.xlsx
+++ b/split_data/standard_in/taipei/mobile.xlsx
@@ -1214,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,7 +1676,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>社子大橋（往北投）</t>
+          <t>學園路（往關渡）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>學園路（往關渡）</t>
+          <t>北投路一段近87巷（往南）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1710,7 +1710,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>北投路一段近87巷（往南）</t>
+          <t>石牌路二段324巷（往東）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>石牌路二段324巷（往東）</t>
+          <t>行義路近241號（往南）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1744,7 +1744,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>石牌路二段325巷（往西）</t>
+          <t>新民路22巷口往西</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>行義路近241號（往南）</t>
+          <t>稻香路260號往臺北</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新民路22巷口往西</t>
+          <t>大業路527巷101弄口往台北</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1795,7 +1795,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>稻香路260號往臺北</t>
+          <t>中央北路二段257巷往北（貴四橋旁）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往台北</t>
+          <t>中央北路二段257巷往南（貴四橋旁）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1829,7 +1829,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往北（貴四橋旁）</t>
+          <t>承德路六段往北（近北科路口）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1846,7 +1846,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往南（貴四橋旁）</t>
+          <t>福國路洲美快匝道口往東</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>承德路六段往北（近北科路口）</t>
+          <t>大業路527巷101弄口往關渡</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1880,13 +1880,30 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>福國路洲美快匝道口往東</t>
+          <t>立賢路往社子（近168號）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>立賢路往北投（近91號）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2674,7 +2691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2990,6 +3007,91 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>松河街376號（東往西）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>松河街376號（西往東）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>研究院路三段279號（南往北）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>研究院路四段91號（北往南）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>研究院路四段200號（南往北）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3141,7 +3243,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>成功路二段３７３號前（北向南）</t>
+          <t>成功路二段373號前（北向南）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -3362,7 +3464,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>文德路﹝內湖高中前─西向東﹞</t>
+          <t>文德路﹝內湖高中前(cid:711)西向東﹞</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -4338,7 +4440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4596,7 +4698,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>堤外便道往北﹝忠孝橋至華江橋﹞</t>
+          <t>堤外便道往南﹝忠孝橋至華江橋﹞</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -4613,7 +4715,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>堤外便道往南﹝忠孝橋至華江橋﹞</t>
+          <t>華江橋機車道(往板橋)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -4630,7 +4732,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>華江橋機車道(往板橋)</t>
+          <t>艋舺大道(往東)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -4647,7 +4749,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>艋舺大道(往東)</t>
+          <t>艋舺大道(往西)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -4664,7 +4766,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>艋舺大道(往西)</t>
+          <t>環河快速道路光復橋至華翠橋間（南往北）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -4681,7 +4783,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>環河快速道路光復橋至華翠橋間（南往北）</t>
+          <t>環河快速道路光復橋至華中橋間（北往南）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -4698,7 +4800,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>環河快速道路光復橋至華中橋間（北往南）</t>
+          <t>水源快速道路往南（環南果菜市場上方）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -4715,7 +4817,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>水源快速道路往南（環南果菜市場上方）</t>
+          <t>華中橋往台北</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -4732,7 +4834,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>華中橋往台北</t>
+          <t>華中橋往中和</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -4749,7 +4851,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>華中橋往中和</t>
+          <t>環河南路一段﹝往南﹞</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -4766,7 +4868,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>環河南路一段﹝往南﹞</t>
+          <t>環河快速道路往北（華中橋與光復橋間）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -4783,7 +4885,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>環河快速道路往北（華中橋與光復橋間）</t>
+          <t>水源快速道路往新店（果菜市場上方）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -4800,7 +4902,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>水源快速道路往新店（果菜市場上方）</t>
+          <t>水源快速道路往南（馬場町紀念公園旁）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -4817,7 +4919,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>水源快速道路往南（馬場町紀念公園旁）</t>
+          <t>堤外便道南往北（華江橋至華中橋）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -4834,7 +4936,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>堤外便道南往北（華江橋至華中橋）</t>
+          <t>堤外便道北往南（華江橋至華中橋）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -4851,7 +4953,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>堤外便道北往南（華江橋至華中橋）</t>
+          <t>環河快速道路華翠橋至光復橋間（北往南）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -4868,7 +4970,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>環河快速道路華翠橋至光復橋間（北往南）</t>
+          <t>環快往北﹝環河南路二段250巷底﹞</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -4885,7 +4987,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>環快往北﹝環河南路二段250巷底﹞</t>
+          <t>環河南路一段﹝往北﹞</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -4902,7 +5004,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>環河南路一段﹝往北﹞</t>
+          <t>環河快速道路往北（家禽市場旁）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -4919,7 +5021,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>環河快速道路往北（家禽市場旁）</t>
+          <t>萬大路往北（富民路口）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -4936,7 +5038,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>萬大路往北（富民路口）</t>
+          <t>西園路2段、西藏路口（北往南）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -4953,7 +5055,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>西園路2段、西藏路口（北往南）</t>
+          <t>和平西路三段﹝東往西﹞</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -4970,7 +5072,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>和平西路三段﹝東往西﹞</t>
+          <t>和平西路三段﹝西往東﹞</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -4987,7 +5089,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>和平西路三段﹝西往東﹞</t>
+          <t>西園路二段、西園路二段196巷口（北往南）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -5004,7 +5106,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>西園路二段、西園路二段196巷口（北往南）</t>
+          <t>桂林路246巷往北</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -5021,7 +5123,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>桂林路246巷往北</t>
+          <t>忠孝西路二段（往東）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -5038,7 +5140,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>忠孝西路二段（往東）</t>
+          <t>環河南路一段348巷</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -5055,30 +5157,13 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>環河南路一段348巷</t>
+          <t>艋舺大道（大理國小前）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>艋舺大道（大理國小前）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6651,7 +6736,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>市民大道平面﹝林森─金山北﹞</t>
+          <t>市民大道平面﹝林森(cid:711)金山北﹞</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -6668,7 +6753,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金山南路(信義路─忠孝東)</t>
+          <t>金山南路(信義路(cid:711)忠孝東)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>

--- a/split_data/standard_in/taipei/mobile.xlsx
+++ b/split_data/standard_in/taipei/mobile.xlsx
@@ -1381,13 +1381,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中央北路三段近220巷口（往北投）</t>
+          <t>中央北路四段近60巷口（往關渡）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1398,13 +1398,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中央北路四段近60巷口（往關渡）</t>
+          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1415,13 +1415,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
+          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1432,13 +1432,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
+          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1449,13 +1449,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
+          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1466,13 +1466,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
+          <t>文林北路（往士林、近75巷口）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1483,13 +1483,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文林北路（往士林、近75巷口）</t>
+          <t>承德路七段（往台北、近344巷口）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1500,13 +1500,13 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>承德路七段（往台北、近344巷口）</t>
+          <t>承德路七段往淡水</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1517,13 +1517,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>承德路七段往淡水</t>
+          <t>行義路近300巷（往南）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1534,13 +1534,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>行義路近300巷（往南）</t>
+          <t>行義路近260巷（往北）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1551,13 +1551,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>行義路近260巷（往北）</t>
+          <t>竹子湖路16號旁（往金山）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1568,13 +1568,13 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>竹子湖路16號旁（往金山）</t>
+          <t>竹子湖路112號旁（往台北）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1585,13 +1585,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>竹子湖路112號旁（往台北）</t>
+          <t>大業路527巷（往淡水、近23弄口）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1602,13 +1602,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大業路527巷（往淡水、近23弄口）</t>
+          <t>大業路527巷（往台北、近23弄口）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1619,13 +1619,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大業路527巷（往台北、近23弄口）</t>
+          <t>北投路一段（往北）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1636,13 +1636,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北投路一段（往北）</t>
+          <t>洲美街焚化爐前（往士林）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1653,13 +1653,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>洲美街焚化爐前（往士林）</t>
+          <t>學園路（往關渡）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1670,13 +1670,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>學園路（往關渡）</t>
+          <t>北投路一段近87巷（往南）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1687,13 +1687,13 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>北投路一段近87巷（往南）</t>
+          <t>石牌路二段324巷（往東）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1704,13 +1704,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>石牌路二段324巷（往東）</t>
+          <t>行義路近241號（往南）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1721,13 +1721,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>行義路近241號（往南）</t>
+          <t>新民路22巷口往西</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1738,13 +1738,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>新民路22巷口往西</t>
+          <t>稻香路260號往臺北</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1755,13 +1755,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>稻香路260號往臺北</t>
+          <t>大業路527巷101弄口往台北</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1772,13 +1772,13 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往台北</t>
+          <t>中央北路二段257巷往北（貴四橋旁）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1789,13 +1789,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往北（貴四橋旁）</t>
+          <t>中央北路二段257巷往南（貴四橋旁）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1806,13 +1806,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往南（貴四橋旁）</t>
+          <t>承德路六段往北（近北科路口）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1823,13 +1823,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>承德路六段往北（近北科路口）</t>
+          <t>福國路洲美快匝道口往東</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1840,13 +1840,13 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>福國路洲美快匝道口往東</t>
+          <t>大業路527巷101弄口往關渡</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1857,13 +1857,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往關渡</t>
+          <t>立賢路往社子（近168號）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1874,13 +1874,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>立賢路往社子（近168號）</t>
+          <t>立賢路往北投（近91號）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1891,13 +1891,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>立賢路往北投（近91號）</t>
+          <t>中央北路四段近48號（往北投）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
